--- a/relatorios/repasses_liberados/dentistas/10061171484/2023-08-25_relatorio_repasses_10061171484.xlsx
+++ b/relatorios/repasses_liberados/dentistas/10061171484/2023-08-25_relatorio_repasses_10061171484.xlsx
@@ -142,7 +142,7 @@
     <t>Luana Alves Farias</t>
   </si>
   <si>
-    <t>Lais Silva De Alburquerq,Ue</t>
+    <t>Lais Silva De Alburquerque</t>
   </si>
   <si>
     <t>Ian Luka Ferreira Rosa</t>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -4942,7 +4942,7 @@
         <v>0</v>
       </c>
       <c r="M77">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="M78">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -7054,7 +7054,7 @@
         <v>0</v>
       </c>
       <c r="M125">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N125">
         <v>0</v>
@@ -7098,10 +7098,10 @@
         <v>0.8</v>
       </c>
       <c r="M126">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N126">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -7142,10 +7142,10 @@
         <v>0.1</v>
       </c>
       <c r="M127">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N127">
-        <v>65</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -8242,10 +8242,10 @@
         <v>1</v>
       </c>
       <c r="M152">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N152">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="153" spans="1:14">
@@ -9958,10 +9958,10 @@
         <v>1</v>
       </c>
       <c r="M191">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N191">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="192" spans="1:14">
@@ -11850,7 +11850,7 @@
         <v>0</v>
       </c>
       <c r="M234">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N234">
         <v>0</v>
@@ -11894,10 +11894,10 @@
         <v>1</v>
       </c>
       <c r="M235">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N235">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="236" spans="1:14">
@@ -12686,10 +12686,10 @@
         <v>0.59893</v>
       </c>
       <c r="M253">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N253">
-        <v>40.248096</v>
+        <v>53.66412800000001</v>
       </c>
     </row>
     <row r="254" spans="1:14">
@@ -12730,10 +12730,10 @@
         <v>0.40107</v>
       </c>
       <c r="M254">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N254">
-        <v>24.0642</v>
+        <v>18.04815</v>
       </c>
     </row>
     <row r="255" spans="1:14">
@@ -13698,10 +13698,10 @@
         <v>1</v>
       </c>
       <c r="M276">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N276">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:14">
@@ -16470,10 +16470,10 @@
         <v>1</v>
       </c>
       <c r="M339">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N339">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="340" spans="1:14">
@@ -16954,7 +16954,7 @@
         <v>0</v>
       </c>
       <c r="M350">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N350">
         <v>0</v>
@@ -16998,7 +16998,7 @@
         <v>0</v>
       </c>
       <c r="M351">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N351">
         <v>0</v>
@@ -17834,10 +17834,10 @@
         <v>1</v>
       </c>
       <c r="M370">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N370">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="371" spans="1:14">
@@ -19506,10 +19506,10 @@
         <v>0.111111</v>
       </c>
       <c r="M408">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N408">
-        <v>0.444444</v>
+        <v>0.333333</v>
       </c>
     </row>
     <row r="409" spans="1:14">
@@ -19814,10 +19814,10 @@
         <v>0.263158</v>
       </c>
       <c r="M415">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N415">
-        <v>6.315792</v>
+        <v>8.421056</v>
       </c>
     </row>
     <row r="416" spans="1:14">
@@ -19858,10 +19858,10 @@
         <v>0.736842</v>
       </c>
       <c r="M416">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N416">
-        <v>66.02104320000001</v>
+        <v>49.5157824</v>
       </c>
     </row>
     <row r="417" spans="1:14">
@@ -21398,10 +21398,10 @@
         <v>1</v>
       </c>
       <c r="M451">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N451">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:14">
@@ -23158,10 +23158,10 @@
         <v>1</v>
       </c>
       <c r="M491">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N491">
-        <v>38</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="492" spans="1:14">

--- a/relatorios/repasses_liberados/dentistas/10061171484/2023-08-25_relatorio_repasses_10061171484.xlsx
+++ b/relatorios/repasses_liberados/dentistas/10061171484/2023-08-25_relatorio_repasses_10061171484.xlsx
@@ -1730,10 +1730,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1774,10 +1774,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N5">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N6">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -2214,10 +2214,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N15">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -2302,10 +2302,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -2698,7 +2698,7 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2830,10 +2830,10 @@
         <v>0.164645</v>
       </c>
       <c r="M29">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N29">
-        <v>4.692382500000001</v>
+        <v>6.25651</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -2918,10 +2918,10 @@
         <v>0.97</v>
       </c>
       <c r="M31">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N31">
-        <v>34.62512</v>
+        <v>25.96884</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -3446,10 +3446,10 @@
         <v>1</v>
       </c>
       <c r="M43">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N43">
-        <v>28.5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="M44">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3534,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -3622,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="M47">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3754,10 +3754,10 @@
         <v>0.416119</v>
       </c>
       <c r="M50">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N50">
-        <v>55.011347919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -3798,10 +3798,10 @@
         <v>0.416119</v>
       </c>
       <c r="M51">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N51">
-        <v>55.011347919</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -4194,10 +4194,10 @@
         <v>1</v>
       </c>
       <c r="M60">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N60">
-        <v>27.6</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -4238,10 +4238,10 @@
         <v>1</v>
       </c>
       <c r="M61">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N61">
-        <v>0</v>
+        <v>165</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -4370,7 +4370,7 @@
         <v>0</v>
       </c>
       <c r="M64">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -4414,7 +4414,7 @@
         <v>0</v>
       </c>
       <c r="M65">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -4546,10 +4546,10 @@
         <v>0.5080209999999999</v>
       </c>
       <c r="M68">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N68">
-        <v>14.4785985</v>
+        <v>19.304798</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -4590,10 +4590,10 @@
         <v>0.491979</v>
       </c>
       <c r="M69">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N69">
-        <v>13.5786204</v>
+        <v>18.1048272</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -4810,10 +4810,10 @@
         <v>0.855856</v>
       </c>
       <c r="M74">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N74">
-        <v>0</v>
+        <v>24.391896</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -4942,7 +4942,7 @@
         <v>0</v>
       </c>
       <c r="M77">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -5030,7 +5030,7 @@
         <v>0</v>
       </c>
       <c r="M79">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -5822,7 +5822,7 @@
         <v>0</v>
       </c>
       <c r="M97">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N97">
         <v>0</v>
@@ -6042,10 +6042,10 @@
         <v>0.432558</v>
       </c>
       <c r="M102">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N102">
-        <v>9.654694559999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -6086,10 +6086,10 @@
         <v>0.497442</v>
       </c>
       <c r="M103">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N103">
-        <v>12.768341256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -6218,10 +6218,10 @@
         <v>0.888889</v>
       </c>
       <c r="M106">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N106">
-        <v>21.333336</v>
+        <v>28.444448</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -6262,10 +6262,10 @@
         <v>0.111111</v>
       </c>
       <c r="M107">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N107">
-        <v>0.333333</v>
+        <v>0.444444</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -6438,7 +6438,7 @@
         <v>0</v>
       </c>
       <c r="M111">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N111">
         <v>0</v>
@@ -6614,10 +6614,10 @@
         <v>1</v>
       </c>
       <c r="M115">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N115">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -6702,10 +6702,10 @@
         <v>1</v>
       </c>
       <c r="M117">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N117">
-        <v>28.5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -6790,10 +6790,10 @@
         <v>1</v>
       </c>
       <c r="M119">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N119">
-        <v>27.6</v>
+        <v>36.8</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -7010,10 +7010,10 @@
         <v>1</v>
       </c>
       <c r="M124">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N124">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -7098,10 +7098,10 @@
         <v>0.8</v>
       </c>
       <c r="M126">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N126">
-        <v>65</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -7142,10 +7142,10 @@
         <v>0.1</v>
       </c>
       <c r="M127">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N127">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -7186,10 +7186,10 @@
         <v>0.1</v>
       </c>
       <c r="M128">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="N128">
-        <v>0.3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -7538,7 +7538,7 @@
         <v>0</v>
       </c>
       <c r="M136">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N136">
         <v>0</v>
@@ -7978,10 +7978,10 @@
         <v>0.98</v>
       </c>
       <c r="M146">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N146">
-        <v>26.50704</v>
+        <v>35.34272</v>
       </c>
     </row>
     <row r="147" spans="1:14">
@@ -8066,7 +8066,7 @@
         <v>0</v>
       </c>
       <c r="M148">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N148">
         <v>0</v>
@@ -8286,10 +8286,10 @@
         <v>1</v>
       </c>
       <c r="M153">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N153">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="154" spans="1:14">
@@ -8330,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="M154">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N154">
         <v>0</v>
@@ -8374,10 +8374,10 @@
         <v>0.5080209999999999</v>
       </c>
       <c r="M155">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N155">
-        <v>19.304798</v>
+        <v>14.4785985</v>
       </c>
     </row>
     <row r="156" spans="1:14">
@@ -8418,10 +8418,10 @@
         <v>0.491979</v>
       </c>
       <c r="M156">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N156">
-        <v>18.1048272</v>
+        <v>13.5786204</v>
       </c>
     </row>
     <row r="157" spans="1:14">
@@ -8594,10 +8594,10 @@
         <v>1</v>
       </c>
       <c r="M160">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N160">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="161" spans="1:14">
@@ -8638,10 +8638,10 @@
         <v>1</v>
       </c>
       <c r="M161">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N161">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:14">
@@ -8770,10 +8770,10 @@
         <v>0.5080209999999999</v>
       </c>
       <c r="M164">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N164">
-        <v>14.4785985</v>
+        <v>19.304798</v>
       </c>
     </row>
     <row r="165" spans="1:14">
@@ -8814,10 +8814,10 @@
         <v>0.491979</v>
       </c>
       <c r="M165">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N165">
-        <v>13.5786204</v>
+        <v>18.1048272</v>
       </c>
     </row>
     <row r="166" spans="1:14">
@@ -8858,10 +8858,10 @@
         <v>1</v>
       </c>
       <c r="M166">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N166">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="167" spans="1:14">
@@ -8902,10 +8902,10 @@
         <v>0.855856</v>
       </c>
       <c r="M167">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N167">
-        <v>32.522528</v>
+        <v>24.391896</v>
       </c>
     </row>
     <row r="168" spans="1:14">
@@ -8946,10 +8946,10 @@
         <v>0.144144</v>
       </c>
       <c r="M168">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N168">
-        <v>0.9225216000000001</v>
+        <v>0.6918911999999999</v>
       </c>
     </row>
     <row r="169" spans="1:14">
@@ -9034,10 +9034,10 @@
         <v>0.904762</v>
       </c>
       <c r="M170">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N170">
-        <v>25.785717</v>
+        <v>34.380956</v>
       </c>
     </row>
     <row r="171" spans="1:14">
@@ -9210,10 +9210,10 @@
         <v>1</v>
       </c>
       <c r="M174">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N174">
-        <v>25.5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="175" spans="1:14">
@@ -9254,10 +9254,10 @@
         <v>1</v>
       </c>
       <c r="M175">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N175">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="176" spans="1:14">
@@ -9386,7 +9386,7 @@
         <v>0</v>
       </c>
       <c r="M178">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N178">
         <v>0</v>
@@ -9430,10 +9430,10 @@
         <v>1</v>
       </c>
       <c r="M179">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N179">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="180" spans="1:14">
@@ -9826,10 +9826,10 @@
         <v>0.263158</v>
       </c>
       <c r="M188">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N188">
-        <v>6.315792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:14">
@@ -9914,10 +9914,10 @@
         <v>1</v>
       </c>
       <c r="M190">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N190">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="191" spans="1:14">
@@ -10046,10 +10046,10 @@
         <v>1</v>
       </c>
       <c r="M193">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N193">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="194" spans="1:14">
@@ -10090,10 +10090,10 @@
         <v>0.904762</v>
       </c>
       <c r="M194">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N194">
-        <v>25.785717</v>
+        <v>34.380956</v>
       </c>
     </row>
     <row r="195" spans="1:14">
@@ -10310,10 +10310,10 @@
         <v>1</v>
       </c>
       <c r="M199">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N199">
-        <v>38</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="200" spans="1:14">
@@ -10442,10 +10442,10 @@
         <v>1</v>
       </c>
       <c r="M202">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N202">
-        <v>38</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="203" spans="1:14">
@@ -10574,7 +10574,7 @@
         <v>0</v>
       </c>
       <c r="M205">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N205">
         <v>0</v>
@@ -10618,10 +10618,10 @@
         <v>1</v>
       </c>
       <c r="M206">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N206">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="207" spans="1:14">
@@ -10706,10 +10706,10 @@
         <v>1</v>
       </c>
       <c r="M208">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N208">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:14">
@@ -10750,10 +10750,10 @@
         <v>0.888889</v>
       </c>
       <c r="M209">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N209">
-        <v>21.333336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:14">
@@ -10794,10 +10794,10 @@
         <v>0.111111</v>
       </c>
       <c r="M210">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N210">
-        <v>0.333333</v>
+        <v>65</v>
       </c>
     </row>
     <row r="211" spans="1:14">
@@ -10838,10 +10838,10 @@
         <v>0.904762</v>
       </c>
       <c r="M211">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N211">
-        <v>34.380956</v>
+        <v>25.785717</v>
       </c>
     </row>
     <row r="212" spans="1:14">
@@ -10882,10 +10882,10 @@
         <v>0.095238</v>
       </c>
       <c r="M212">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N212">
-        <v>0.380952</v>
+        <v>0.285714</v>
       </c>
     </row>
     <row r="213" spans="1:14">
@@ -11410,10 +11410,10 @@
         <v>1</v>
       </c>
       <c r="M224">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N224">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="225" spans="1:14">
@@ -11454,10 +11454,10 @@
         <v>1</v>
       </c>
       <c r="M225">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N225">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:14">
@@ -11718,10 +11718,10 @@
         <v>1</v>
       </c>
       <c r="M231">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N231">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="232" spans="1:14">
@@ -11850,7 +11850,7 @@
         <v>0</v>
       </c>
       <c r="M234">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N234">
         <v>0</v>
@@ -11894,10 +11894,10 @@
         <v>1</v>
       </c>
       <c r="M235">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N235">
-        <v>65</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="236" spans="1:14">
@@ -11938,10 +11938,10 @@
         <v>1</v>
       </c>
       <c r="M236">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N236">
-        <v>6.4</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="237" spans="1:14">
@@ -12114,10 +12114,10 @@
         <v>0.111111</v>
       </c>
       <c r="M240">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N240">
-        <v>0.333333</v>
+        <v>0.444444</v>
       </c>
     </row>
     <row r="241" spans="1:14">
@@ -12158,10 +12158,10 @@
         <v>1</v>
       </c>
       <c r="M241">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N241">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="242" spans="1:14">
@@ -12202,10 +12202,10 @@
         <v>1</v>
       </c>
       <c r="M242">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N242">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="243" spans="1:14">
@@ -12686,10 +12686,10 @@
         <v>0.59893</v>
       </c>
       <c r="M253">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N253">
-        <v>53.66412800000001</v>
+        <v>40.248096</v>
       </c>
     </row>
     <row r="254" spans="1:14">
@@ -12818,10 +12818,10 @@
         <v>1</v>
       </c>
       <c r="M256">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N256">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="257" spans="1:14">
@@ -12950,10 +12950,10 @@
         <v>1</v>
       </c>
       <c r="M259">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N259">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="260" spans="1:14">
@@ -13522,10 +13522,10 @@
         <v>0.833333</v>
       </c>
       <c r="M272">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N272">
-        <v>26.666656</v>
+        <v>19.999992</v>
       </c>
     </row>
     <row r="273" spans="1:14">
@@ -13566,10 +13566,10 @@
         <v>0.166667</v>
       </c>
       <c r="M273">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N273">
-        <v>1.0666688</v>
+        <v>0.8000016</v>
       </c>
     </row>
     <row r="274" spans="1:14">
@@ -13610,10 +13610,10 @@
         <v>1</v>
       </c>
       <c r="M274">
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="N274">
-        <v>27.6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="275" spans="1:14">
@@ -13654,10 +13654,10 @@
         <v>1</v>
       </c>
       <c r="M275">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N275">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="276" spans="1:14">
@@ -13698,10 +13698,10 @@
         <v>1</v>
       </c>
       <c r="M276">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N276">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="277" spans="1:14">
@@ -13874,10 +13874,10 @@
         <v>1</v>
       </c>
       <c r="M280">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N280">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="281" spans="1:14">
@@ -13918,10 +13918,10 @@
         <v>1</v>
       </c>
       <c r="M281">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N281">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:14">
@@ -13962,10 +13962,10 @@
         <v>1</v>
       </c>
       <c r="M282">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N282">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="283" spans="1:14">
@@ -14138,10 +14138,10 @@
         <v>1</v>
       </c>
       <c r="M286">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N286">
-        <v>27.6</v>
+        <v>36.8</v>
       </c>
     </row>
     <row r="287" spans="1:14">
@@ -14710,10 +14710,10 @@
         <v>0</v>
       </c>
       <c r="M299">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N299">
-        <v>7.065</v>
+        <v>9.42</v>
       </c>
     </row>
     <row r="300" spans="1:14">
@@ -14754,10 +14754,10 @@
         <v>0</v>
       </c>
       <c r="M300">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N300">
-        <v>5.748</v>
+        <v>7.664000000000001</v>
       </c>
     </row>
     <row r="301" spans="1:14">
@@ -15414,10 +15414,10 @@
         <v>1</v>
       </c>
       <c r="M315">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N315">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="316" spans="1:14">
@@ -16030,10 +16030,10 @@
         <v>1</v>
       </c>
       <c r="M329">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N329">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="330" spans="1:14">
@@ -16074,10 +16074,10 @@
         <v>1</v>
       </c>
       <c r="M330">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N330">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="331" spans="1:14">
@@ -16514,10 +16514,10 @@
         <v>1</v>
       </c>
       <c r="M340">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N340">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="341" spans="1:14">
@@ -16690,10 +16690,10 @@
         <v>1</v>
       </c>
       <c r="M344">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="N344">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="345" spans="1:14">
@@ -16822,7 +16822,7 @@
         <v>0</v>
       </c>
       <c r="M347">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N347">
         <v>0</v>
@@ -16866,10 +16866,10 @@
         <v>1</v>
       </c>
       <c r="M348">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N348">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="349" spans="1:14">
@@ -16954,7 +16954,7 @@
         <v>0</v>
       </c>
       <c r="M350">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N350">
         <v>0</v>
@@ -17042,7 +17042,7 @@
         <v>0</v>
       </c>
       <c r="M352">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N352">
         <v>0</v>
@@ -17350,10 +17350,10 @@
         <v>1</v>
       </c>
       <c r="M359">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N359">
-        <v>27.6</v>
+        <v>36.8</v>
       </c>
     </row>
     <row r="360" spans="1:14">
@@ -17394,7 +17394,7 @@
         <v>0</v>
       </c>
       <c r="M360">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N360">
         <v>0</v>
@@ -17438,10 +17438,10 @@
         <v>1</v>
       </c>
       <c r="M361">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N361">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="362" spans="1:14">
@@ -17702,7 +17702,7 @@
         <v>0</v>
       </c>
       <c r="M367">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N367">
         <v>0</v>
@@ -17922,7 +17922,7 @@
         <v>0</v>
       </c>
       <c r="M372">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N372">
         <v>0</v>
@@ -18142,10 +18142,10 @@
         <v>1</v>
       </c>
       <c r="M377">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N377">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="378" spans="1:14">
@@ -18230,10 +18230,10 @@
         <v>1</v>
       </c>
       <c r="M379">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N379">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="380" spans="1:14">
@@ -18274,10 +18274,10 @@
         <v>1</v>
       </c>
       <c r="M380">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N380">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="381" spans="1:14">
@@ -18406,10 +18406,10 @@
         <v>1</v>
       </c>
       <c r="M383">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N383">
-        <v>36.8</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="384" spans="1:14">
@@ -18802,10 +18802,10 @@
         <v>1</v>
       </c>
       <c r="M392">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N392">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="393" spans="1:14">
@@ -18978,10 +18978,10 @@
         <v>1</v>
       </c>
       <c r="M396">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N396">
-        <v>89.60000000000001</v>
+        <v>67.2</v>
       </c>
     </row>
     <row r="397" spans="1:14">
@@ -19154,10 +19154,10 @@
         <v>1</v>
       </c>
       <c r="M400">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N400">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="401" spans="1:14">
@@ -19242,7 +19242,7 @@
         <v>0</v>
       </c>
       <c r="M402">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N402">
         <v>0</v>
@@ -19374,10 +19374,10 @@
         <v>1</v>
       </c>
       <c r="M405">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="N405">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="406" spans="1:14">
@@ -19594,10 +19594,10 @@
         <v>1</v>
       </c>
       <c r="M410">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N410">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="411" spans="1:14">
@@ -19770,10 +19770,10 @@
         <v>1</v>
       </c>
       <c r="M414">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N414">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="415" spans="1:14">
@@ -19814,10 +19814,10 @@
         <v>0.263158</v>
       </c>
       <c r="M415">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N415">
-        <v>8.421056</v>
+        <v>6.315792</v>
       </c>
     </row>
     <row r="416" spans="1:14">
@@ -19858,10 +19858,10 @@
         <v>0.736842</v>
       </c>
       <c r="M416">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N416">
-        <v>49.5157824</v>
+        <v>82.526304</v>
       </c>
     </row>
     <row r="417" spans="1:14">
@@ -20122,10 +20122,10 @@
         <v>0.184466</v>
       </c>
       <c r="M422">
-        <v>65</v>
+        <v>0.4</v>
       </c>
       <c r="N422">
-        <v>65</v>
+        <v>7.009708</v>
       </c>
     </row>
     <row r="423" spans="1:14">
@@ -20166,10 +20166,10 @@
         <v>0.815534</v>
       </c>
       <c r="M423">
-        <v>65</v>
+        <v>0.4</v>
       </c>
       <c r="N423">
-        <v>65</v>
+        <v>137.009712</v>
       </c>
     </row>
     <row r="424" spans="1:14">
@@ -20254,10 +20254,10 @@
         <v>0.833333</v>
       </c>
       <c r="M425">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N425">
-        <v>19.999992</v>
+        <v>26.666656</v>
       </c>
     </row>
     <row r="426" spans="1:14">
@@ -20386,10 +20386,10 @@
         <v>1</v>
       </c>
       <c r="M428">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N428">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="429" spans="1:14">
@@ -20430,10 +20430,10 @@
         <v>1</v>
       </c>
       <c r="M429">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N429">
-        <v>38</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="430" spans="1:14">
@@ -20518,7 +20518,7 @@
         <v>0</v>
       </c>
       <c r="M431">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N431">
         <v>0</v>
@@ -20606,10 +20606,10 @@
         <v>1</v>
       </c>
       <c r="M433">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N433">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="434" spans="1:14">
@@ -20650,7 +20650,7 @@
         <v>0</v>
       </c>
       <c r="M434">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N434">
         <v>0</v>
@@ -20694,10 +20694,10 @@
         <v>1</v>
       </c>
       <c r="M435">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N435">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="436" spans="1:14">
@@ -21222,10 +21222,10 @@
         <v>1</v>
       </c>
       <c r="M447">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N447">
-        <v>28.5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="448" spans="1:14">
@@ -21310,10 +21310,10 @@
         <v>1</v>
       </c>
       <c r="M449">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N449">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="450" spans="1:14">
@@ -21354,7 +21354,7 @@
         <v>0</v>
       </c>
       <c r="M450">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N450">
         <v>0</v>
@@ -21398,10 +21398,10 @@
         <v>1</v>
       </c>
       <c r="M451">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N451">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="452" spans="1:14">
@@ -21442,10 +21442,10 @@
         <v>1</v>
       </c>
       <c r="M452">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N452">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:14">
@@ -21486,10 +21486,10 @@
         <v>1</v>
       </c>
       <c r="M453">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N453">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:14">
@@ -21574,10 +21574,10 @@
         <v>1</v>
       </c>
       <c r="M455">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N455">
-        <v>6.4</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="456" spans="1:14">
@@ -21706,10 +21706,10 @@
         <v>1</v>
       </c>
       <c r="M458">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N458">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="459" spans="1:14">
@@ -21838,10 +21838,10 @@
         <v>0.263158</v>
       </c>
       <c r="M461">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N461">
-        <v>8.421056</v>
+        <v>6.315792</v>
       </c>
     </row>
     <row r="462" spans="1:14">
@@ -21882,10 +21882,10 @@
         <v>0.736842</v>
       </c>
       <c r="M462">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N462">
-        <v>66.02104320000001</v>
+        <v>49.5157824</v>
       </c>
     </row>
     <row r="463" spans="1:14">
@@ -21926,10 +21926,10 @@
         <v>0.465116</v>
       </c>
       <c r="M463">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N463">
-        <v>11.162784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:14">
@@ -21970,10 +21970,10 @@
         <v>0.534884</v>
       </c>
       <c r="M464">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N464">
-        <v>14.7627984</v>
+        <v>65</v>
       </c>
     </row>
     <row r="465" spans="1:14">
@@ -22146,10 +22146,10 @@
         <v>1</v>
       </c>
       <c r="M468">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N468">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="469" spans="1:14">
@@ -22366,10 +22366,10 @@
         <v>0.144144</v>
       </c>
       <c r="M473">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N473">
-        <v>0.6918911999999999</v>
+        <v>0.9225216000000001</v>
       </c>
     </row>
     <row r="474" spans="1:14">
@@ -22454,10 +22454,10 @@
         <v>1</v>
       </c>
       <c r="M475">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N475">
-        <v>28.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:14">
@@ -22674,10 +22674,10 @@
         <v>1</v>
       </c>
       <c r="M480">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N480">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="481" spans="1:14">
@@ -22806,10 +22806,10 @@
         <v>1</v>
       </c>
       <c r="M483">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N483">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="484" spans="1:14">
@@ -22938,10 +22938,10 @@
         <v>1</v>
       </c>
       <c r="M486">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N486">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:14">
@@ -23378,10 +23378,10 @@
         <v>1</v>
       </c>
       <c r="M496">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N496">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="497" spans="1:14">
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="M499">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N499">
         <v>0</v>
@@ -23554,10 +23554,10 @@
         <v>1</v>
       </c>
       <c r="M500">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N500">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="501" spans="1:14">
